--- a/Config/Datas/AttributeData.xlsx
+++ b/Config/Datas/AttributeData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/goho/Documents/GitHub/goblin/Config/Datas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CAD43E5-0D6C-1F41-B131-6202CA2A488A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBD417B2-0F5B-E440-846F-331A07030705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -490,7 +490,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17"/>
@@ -571,7 +571,7 @@
         <v>1000</v>
       </c>
       <c r="E4" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F4" s="2">
         <v>5</v>

--- a/Config/Datas/AttributeData.xlsx
+++ b/Config/Datas/AttributeData.xlsx
@@ -1,26 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10511"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/goho/Documents/GitHub/goblin/Config/Datas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBD417B2-0F5B-E440-846F-331A07030705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7685CBD-398D-8C4D-AB63-DE2197DF2F6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AttributeInfo" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>##var</t>
   </si>
@@ -28,6 +41,18 @@
     <t>Id</t>
   </si>
   <si>
+    <t>HP</t>
+  </si>
+  <si>
+    <t>MaxHP</t>
+  </si>
+  <si>
+    <t>MoveSpeed</t>
+  </si>
+  <si>
+    <t>Attack</t>
+  </si>
+  <si>
     <t>##type</t>
   </si>
   <si>
@@ -40,40 +65,16 @@
     <t>ID</t>
   </si>
   <si>
-    <t>int</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>HP</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MaxHP</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MoveSpeed</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Attack</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>当前生命值</t>
   </si>
   <si>
     <t>最大生命值</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前生命值</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>移动速度</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>攻击力</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -198,6 +199,13 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
+<customStorage xmlns="https://web.wps.cn/et/2018/main">
+  <book/>
+  <sheets/>
+</customStorage>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -490,7 +498,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17"/>
@@ -508,56 +516,56 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="5" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>13</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -571,10 +579,10 @@
         <v>1000</v>
       </c>
       <c r="E4" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F4" s="2">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Datas/AttributeData.xlsx
+++ b/Config/Datas/AttributeData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/goho/Documents/GitHub/goblin/Config/Datas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7685CBD-398D-8C4D-AB63-DE2197DF2F6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{866A4524-5FB4-904C-AD2B-E8F3A50FEC3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -498,7 +498,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17"/>
@@ -579,7 +579,7 @@
         <v>1000</v>
       </c>
       <c r="E4" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F4" s="2">
         <v>25</v>
